--- a/sources/data/_raw/ScenarioTables.xlsx
+++ b/sources/data/_raw/ScenarioTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200115-duluth_schools/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913EEBF1-D85E-9646-BDBE-3B382BD19017}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53958DB4-821C-3646-9B8A-53360E0989A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1640" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6DC25C7-D3DB-4D88-BEE0-FE172A11FF75}"/>
+    <workbookView xWindow="1480" yWindow="3260" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6DC25C7-D3DB-4D88-BEE0-FE172A11FF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Current</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Ojibwe Immersion</t>
-  </si>
-  <si>
-    <t>Stowe Total</t>
   </si>
   <si>
     <t>Scenario 3</t>
@@ -927,7 +924,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1351,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707409E4-173E-4052-8772-E73233C92E66}">
   <dimension ref="A1:AM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3670,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF774E3A-FB66-4EF0-8388-4FF5BDA82578}">
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3848,223 +3845,253 @@
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>625</v>
+        <v>352</v>
       </c>
       <c r="C10" s="4">
-        <v>488</v>
+        <v>289</v>
       </c>
       <c r="D10" s="12">
-        <v>0.31967213114754101</v>
+        <v>0.73356401384083048</v>
       </c>
       <c r="E10" s="12">
-        <v>0.26639344262295084</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.78080000000000005</v>
+        <v>0.36678200692041518</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.82102272727272729</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="C11" s="4">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="D11" s="12">
-        <v>0.73356401384083048</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="E11" s="12">
-        <v>0.36678200692041518</v>
+        <v>0.47894736842105268</v>
       </c>
       <c r="F11" s="10">
-        <v>0.82102272727272729</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="C12" s="4">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="D12" s="12">
-        <v>0.73684210526315785</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="E12" s="12">
-        <v>0.47894736842105268</v>
+        <v>0.3355855855855856</v>
       </c>
       <c r="F12" s="10">
-        <v>0.86363636363636365</v>
+        <v>0.80727272727272725</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C13" s="4">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="D13" s="12">
-        <v>0.5855855855855856</v>
+        <v>0.59539473684210531</v>
       </c>
       <c r="E13" s="12">
-        <v>0.3355855855855856</v>
+        <v>0.22368421052631582</v>
       </c>
       <c r="F13" s="10">
-        <v>0.80727272727272725</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>400</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="21">
+        <v>150</v>
       </c>
       <c r="C14" s="4">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="D14" s="12">
-        <v>0.59539473684210531</v>
+        <v>0.51470588235294112</v>
       </c>
       <c r="E14" s="12">
-        <v>0.22368421052631582</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="F14" s="10">
-        <v>0.76</v>
+        <v>0.45333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="21">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1281.6000000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>68</v>
+        <v>839</v>
       </c>
       <c r="D15" s="12">
-        <v>0.51470588235294112</v>
+        <v>0.63408820023837897</v>
       </c>
       <c r="E15" s="12">
-        <v>0.61764705882352944</v>
+        <v>0.35637663885578064</v>
       </c>
       <c r="F15" s="10">
-        <v>0.45333333333333331</v>
+        <v>0.65465043695380765</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="21">
-        <v>550</v>
+        <v>2</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1411.2</v>
       </c>
       <c r="C16" s="4">
-        <v>372</v>
+        <v>935</v>
       </c>
       <c r="D16" s="12">
-        <v>0.58064516129032262</v>
+        <v>0.18609625668449198</v>
       </c>
       <c r="E16" s="12">
-        <v>0.29569892473118276</v>
+        <v>0.10160427807486627</v>
       </c>
       <c r="F16" s="10">
-        <v>0.67636363636363639</v>
+        <v>0.66255668934240364</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="15">
-        <v>1281.6000000000001</v>
+        <v>1432.8000000000002</v>
       </c>
       <c r="C17" s="4">
-        <v>839</v>
+        <v>1217</v>
       </c>
       <c r="D17" s="12">
-        <v>0.63408820023837897</v>
+        <v>0.55875102711585867</v>
       </c>
       <c r="E17" s="12">
-        <v>0.35637663885578064</v>
+        <v>0.32785538208709941</v>
       </c>
       <c r="F17" s="10">
-        <v>0.65465043695380765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.84938581797878265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="15">
-        <v>1411.2</v>
+        <v>1778.4</v>
       </c>
       <c r="C18" s="4">
-        <v>935</v>
+        <v>1380</v>
       </c>
       <c r="D18" s="12">
-        <v>0.18609625668449198</v>
+        <v>0.14927536231884059</v>
       </c>
       <c r="E18" s="12">
-        <v>0.10160427807486627</v>
+        <v>0.10942028985507246</v>
       </c>
       <c r="F18" s="10">
-        <v>0.66255668934240364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1432.8000000000002</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1217</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.55875102711585867</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.32785538208709941</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.84938581797878265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1778.4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1380</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.14927536231884059</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.10942028985507246</v>
-      </c>
-      <c r="F20" s="10">
         <v>0.77597840755735492</v>
       </c>
+    </row>
+    <row r="37" spans="2:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+    </row>
+    <row r="38" spans="2:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
     </row>
     <row r="39" spans="2:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
@@ -5781,76 +5808,6 @@
       <c r="AG87" s="11"/>
       <c r="AH87" s="11"/>
     </row>
-    <row r="88" spans="2:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11"/>
-      <c r="AB88" s="11"/>
-      <c r="AC88" s="11"/>
-      <c r="AD88" s="11"/>
-      <c r="AE88" s="11"/>
-      <c r="AF88" s="11"/>
-      <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
-    </row>
-    <row r="89" spans="2:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-      <c r="AA89" s="11"/>
-      <c r="AB89" s="11"/>
-      <c r="AC89" s="11"/>
-      <c r="AD89" s="11"/>
-      <c r="AE89" s="11"/>
-      <c r="AF89" s="11"/>
-      <c r="AG89" s="11"/>
-      <c r="AH89" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
@@ -5865,7 +5822,7 @@
   <dimension ref="A1:AE87"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="A3:E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5884,7 +5841,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
